--- a/rooms.xlsx
+++ b/rooms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iGlop\d\pixelStarship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC42EC9-B27E-42D1-A5E6-561D0E384096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD117AEB-C3B2-4962-84FD-97FE2BF049AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1029" yWindow="-90" windowWidth="15518" windowHeight="10466" xr2:uid="{3EA85D66-A0DA-4898-AC19-D8D91EA3C745}"/>
+    <workbookView xWindow="1436" yWindow="-90" windowWidth="15111" windowHeight="10466" xr2:uid="{3EA85D66-A0DA-4898-AC19-D8D91EA3C745}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>laser</t>
   </si>
@@ -80,12 +80,21 @@
   </si>
   <si>
     <t>PLA</t>
+  </si>
+  <si>
+    <t>tiles</t>
+  </si>
+  <si>
+    <t>dpst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,9 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B47B9F-DE74-4EA2-ABCD-7E98C642F93B}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
@@ -443,14 +453,16 @@
     <col min="2" max="3" width="5.765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.19140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.19140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.11328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.921875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.9609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.19140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.53515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.11328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.85">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -467,24 +479,30 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.63</v>
+        <v>5.13</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -495,29 +513,36 @@
       <c r="E2">
         <v>0.5</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G8" si="0">D2/B2</f>
-        <v>0.17761989342806395</v>
+      <c r="G2">
+        <v>6</v>
       </c>
       <c r="H2" s="1">
-        <f>G2/C2</f>
-        <v>8.8809946714031973E-2</v>
-      </c>
-      <c r="I2" s="1">
+        <f t="shared" ref="H2:H8" si="0">D2/B2</f>
+        <v>0.19493177387914232</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2/G2</f>
+        <v>3.2488628979857055E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <f>H2/C2</f>
+        <v>9.7465886939571159E-2</v>
+      </c>
+      <c r="K2" s="1">
         <f>E2/B2/C2</f>
-        <v>4.4404973357015987E-2</v>
-      </c>
-      <c r="J2" s="1">
+        <v>4.8732943469785579E-2</v>
+      </c>
+      <c r="L2" s="1">
         <f>F2/B2/C2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.75</v>
+        <v>4.38</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -528,35 +553,42 @@
       <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H8" si="1">G3/C3</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I8" si="2">E3/B3/C3</f>
-        <v>0.10526315789473684</v>
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3/G3</f>
+        <v>2.853881278538813E-2</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J7" si="3">F3/B3/C3</f>
+        <f t="shared" ref="J3:J8" si="1">H3/C3</f>
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K8" si="2">E3/B3/C3</f>
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L7" si="3">F3/B3/C3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -564,29 +596,36 @@
       <c r="F4">
         <v>7.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="H4" s="1">
+        <v>0.12631578947368421</v>
+      </c>
+      <c r="I4" s="2">
+        <f>H4/G4</f>
+        <v>2.1052631578947368E-2</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>3.1746031746031744E-2</v>
-      </c>
-      <c r="I4" s="1">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <f t="shared" si="3"/>
-        <v>0.23809523809523811</v>
+        <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -595,27 +634,33 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>_xlfn.FLOOR.MATH(-0.9)</f>
-        <v>-1</v>
-      </c>
-      <c r="G5" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="2">
+        <f>H5/G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>-4.301075268817204E-2</v>
-      </c>
-      <c r="J5" s="1">
+        <v>-4.8888888888888891E-2</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -634,24 +679,31 @@
         <f>0.1*50</f>
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="2">
+        <f>H6/G6</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -670,24 +722,31 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="2">
+        <f>H7/G7</f>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -703,15 +762,22 @@
       <c r="E8">
         <v>0.5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="2">
+        <f>H8/G8</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>2.7777777777777776E-2</v>
       </c>

--- a/rooms.xlsx
+++ b/rooms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iGlop\d\pixelStarship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD117AEB-C3B2-4962-84FD-97FE2BF049AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C08AC32-2FA6-4AB0-B78D-A9581BFBA367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1436" yWindow="-90" windowWidth="15111" windowHeight="10466" xr2:uid="{3EA85D66-A0DA-4898-AC19-D8D91EA3C745}"/>
+    <workbookView xWindow="1063" yWindow="-90" windowWidth="15484" windowHeight="10466" xr2:uid="{3EA85D66-A0DA-4898-AC19-D8D91EA3C745}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>laser</t>
   </si>
@@ -46,27 +46,12 @@
     <t>reload</t>
   </si>
   <si>
-    <t>power</t>
-  </si>
-  <si>
     <t>dmg</t>
   </si>
   <si>
-    <t>minigun</t>
-  </si>
-  <si>
-    <t>phaser</t>
-  </si>
-  <si>
     <t>shield dmg</t>
   </si>
   <si>
-    <t>missile</t>
-  </si>
-  <si>
-    <t>emp time</t>
-  </si>
-  <si>
     <t>dpsp</t>
   </si>
   <si>
@@ -76,9 +61,6 @@
     <t>dpsp to shield</t>
   </si>
   <si>
-    <t>emp per s p</t>
-  </si>
-  <si>
     <t>PLA</t>
   </si>
   <si>
@@ -86,6 +68,51 @@
   </si>
   <si>
     <t>dpst</t>
+  </si>
+  <si>
+    <t>HAN.defender</t>
+  </si>
+  <si>
+    <t>HAN.firehawk</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>MSL.rocket</t>
+  </si>
+  <si>
+    <t>MSL.scarlet</t>
+  </si>
+  <si>
+    <t>fire psp</t>
+  </si>
+  <si>
+    <t>SWP.minigun</t>
+  </si>
+  <si>
+    <t>SWP.phaser</t>
+  </si>
+  <si>
+    <t>MWP.PD</t>
+  </si>
+  <si>
+    <t>MWP.LB</t>
+  </si>
+  <si>
+    <t>MWP.RG</t>
+  </si>
+  <si>
+    <t>pow</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>ION</t>
+  </si>
+  <si>
+    <t>SB</t>
   </si>
 </sst>
 </file>
@@ -442,24 +469,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B47B9F-DE74-4EA2-ABCD-7E98C642F93B}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="3" width="5.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.11328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.11328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.19140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.921875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="3.3828125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.9609375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.19140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.15234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.15234375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.11328125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.85">
@@ -467,34 +499,34 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.85">
@@ -502,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -517,24 +549,20 @@
         <v>6</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H8" si="0">D2/B2</f>
-        <v>0.19493177387914232</v>
-      </c>
-      <c r="I2" s="2">
-        <f>H2/G2</f>
-        <v>3.2488628979857055E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <f>H2/C2</f>
-        <v>9.7465886939571159E-2</v>
+        <f t="shared" ref="H2:H7" si="0">D2/B2</f>
+        <v>0.20491803278688525</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I7" si="1">H2/G2</f>
+        <v>3.4153005464480878E-2</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J7" si="2">H2/C2</f>
+        <v>0.10245901639344263</v>
       </c>
       <c r="K2" s="1">
-        <f>E2/B2/C2</f>
-        <v>4.8732943469785579E-2</v>
-      </c>
-      <c r="L2" s="1">
-        <f>F2/B2/C2</f>
-        <v>0</v>
+        <f t="shared" ref="K2:K7" si="3">E2/B2/C2</f>
+        <v>5.1229508196721313E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.85">
@@ -542,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.38</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -558,192 +586,166 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="I3" s="2">
-        <f>H3/G3</f>
-        <v>2.853881278538813E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J8" si="1">H3/C3</f>
-        <v>0.11415525114155252</v>
+        <v>0.125</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K8" si="2">E3/B3/C3</f>
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L7" si="3">F3/B3/C3</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>9.5</v>
+        <v>6.75</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>7.5</v>
+        <v>-1.3</v>
       </c>
       <c r="G4">
         <v>6</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0.12631578947368421</v>
-      </c>
-      <c r="I4" s="2">
-        <f>H4/G4</f>
-        <v>2.1052631578947368E-2</v>
-      </c>
-      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>4.2105263157894736E-2</v>
-      </c>
-      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>0.26315789473684209</v>
+        <v>-6.4197530864197536E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f>15+0.4*(75-1)</f>
+        <v>44.6</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="D5">
+        <f>0.1*75</f>
         <v>7.5</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
-        <v>-1.1000000000000001</v>
+        <f>D5</f>
+        <v>7.5</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <f>H5/G5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+        <v>0.16816143497757846</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.2040358744394615E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>8.4080717488789231E-2</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="2"/>
-        <v>-4.8888888888888891E-2</v>
-      </c>
-      <c r="L5" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.4080717488789231E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <f>15+0.5*50</f>
-        <v>40</v>
+        <v>6.5</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <f>0.1*50</f>
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
-        <f>0.1*50</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="I6" s="2">
-        <f>H6/G6</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="J6" s="1">
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>3.8461538461538464E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L6" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <f>H7/G7</f>
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="J7" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>6.2500000000000003E-3</v>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.85">
@@ -751,39 +753,409 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I8" s="2">
-        <f>H8/G8</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" ref="H8:H10" si="4">D8/B8</f>
+        <v>0.16969696969696968</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I10" si="5">H8/G8</f>
+        <v>2.8282828282828281E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ref="J8:J10" si="6">H8/C8</f>
+        <v>5.6565656565656562E-2</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7777777777777776E-2</v>
+        <f t="shared" ref="K8:K10" si="7">E8/B8/C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>8.25</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9">
+        <f>F9/B9/C9</f>
+        <v>0.36363636363636359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>5.5</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f>0.3*5</f>
+        <v>1.5</v>
+      </c>
+      <c r="E10">
+        <f>D10/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="6"/>
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4090909090909088E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f>3*5</f>
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11">
+        <f>F11/B11/C11</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>3.5+(3-1)*0.2</f>
+        <v>3.9</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f>0.1*3</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E12">
+        <f>0.7*3</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12" si="8">D12/B12</f>
+        <v>7.6923076923076941E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ref="I12" si="9">H12/G12</f>
+        <v>1.2820512820512824E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12" si="10">H12/C12</f>
+        <v>2.5641025641025647E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12" si="11">E12/B12/C12</f>
+        <v>0.17948717948717949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <f>D13/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13:H14" si="12">D13/B13</f>
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13:I14" si="13">H13/G13</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ref="J13:J14" si="14">H13/C13</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ref="K13:K14" si="15">E13/B13/C13</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f>D14/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="12"/>
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="13"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <f>8.75+1</f>
+        <v>9.75</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f>3*0.3</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E15">
+        <f>3*0.7</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15" si="16">D15/B15</f>
+        <v>9.2307692307692299E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ref="I15" si="17">H15/G15</f>
+        <v>1.1538461538461537E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ref="J15" si="18">H15/C15</f>
+        <v>1.846153846153846E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ref="K15" si="19">E15/B15/C15</f>
+        <v>4.3076923076923068E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <f>3+17.25</f>
+        <v>20.25</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f>0.6*4</f>
+        <v>2.4</v>
+      </c>
+      <c r="E16">
+        <f>0.3*4</f>
+        <v>1.2</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16" si="20">D16/B16</f>
+        <v>0.11851851851851851</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I16" si="21">H16/G16</f>
+        <v>1.3168724279835391E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ref="J16" si="22">H16/C16</f>
+        <v>1.9753086419753086E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16" si="23">E16/B16/C16</f>
+        <v>9.876543209876543E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.85">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>10.5</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17" si="24">D17/B17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ref="I17" si="25">H17/G17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ref="J17" si="26">H17/C17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" ref="K17" si="27">E17/B17/C17</f>
+        <v>-4.7619047619047616E-2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7DC0F397-6B86-4304-A1F3-720F94058A4D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3DF2CA61-06EF-43E4-930E-0BF3E1784C58}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7DC0F397-6B86-4304-A1F3-720F94058A4D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3DF2CA61-06EF-43E4-930E-0BF3E1784C58}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>